--- a/[3] Test Input/RESULTS_T10_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_T10_ASR_control.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,37 +533,37 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[102]</t>
+          <t>[43]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[102.62]</t>
+          <t>[41.12019646503102]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[90.21000000000001]</t>
+          <t>[41.12019646503102]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[42.11]</t>
+          <t>[12.88]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[184.2]</t>
+          <t>[26.48]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[11440.56]</t>
+          <t>[1371.13]</t>
         </is>
       </c>
     </row>
@@ -590,47 +590,47 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[10, 14]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[30, 32]</t>
+          <t>[32, 32]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[20, 18]</t>
+          <t>[30, 30]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[162, 56]</t>
+          <t>[66, 27]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[162.64, 56.34]</t>
+          <t>[65.91728336018656, 26.655785150739373]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[136.82, 51.980000000000004]</t>
+          <t>[60.82418214033048, 26.655785150739373]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[66.49, 20.44]</t>
+          <t>[23.11, 8.2]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[156.36, 222.84]</t>
+          <t>[43.79, 6.86]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[17902.09, 5659.07]</t>
+          <t>[2661.69, 1150.21]</t>
         </is>
       </c>
     </row>
@@ -657,47 +657,47 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[54]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[44]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[135]</t>
+          <t>[72]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[118.38]</t>
+          <t>[66.08783773399121]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[121.4]</t>
+          <t>[66.08783773399121]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[56.37]</t>
+          <t>[22.96]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[107.65]</t>
+          <t>[63.76]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[12034.39]</t>
+          <t>[3612.15]</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -734,37 +734,37 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[28]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[144]</t>
+          <t>[56]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[144.2]</t>
+          <t>[55.746922335919066]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[142.85999999999999]</t>
+          <t>[53.29054195631661]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[59.11]</t>
+          <t>[18.34]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>[148.92]</t>
+          <t>[29.98]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[17044.38]</t>
+          <t>[2135.85]</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -801,37 +801,37 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[88]</t>
+          <t>[39]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[88.53]</t>
+          <t>[34.1088841392428]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[85.51]</t>
+          <t>[33.515368571321666]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[35.89]</t>
+          <t>[13.43]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>[229.11]</t>
+          <t>[33.78]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[11131.48]</t>
+          <t>[1437.7]</t>
         </is>
       </c>
     </row>
@@ -858,47 +858,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[20]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[144]</t>
+          <t>[97]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[144.54]</t>
+          <t>[92.76675635975053]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[135.82]</t>
+          <t>[84.99343789125676]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[42.67]</t>
+          <t>[28.95]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[50.41]</t>
+          <t>[47.05]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[9416.06]</t>
+          <t>[3975.87]</t>
         </is>
       </c>
     </row>
@@ -925,47 +925,47 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[75]</t>
+          <t>[33]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[75.46]</t>
+          <t>[33.01268612137392]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[61.36999999999999]</t>
+          <t>[26.993265754658037]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[29.76]</t>
+          <t>[11.31]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>[130.01]</t>
+          <t>[31.53]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[8824.85]</t>
+          <t>[1529.84]</t>
         </is>
       </c>
     </row>

--- a/[3] Test Input/RESULTS_T10_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_T10_ASR_control.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,40 +461,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -523,45 +513,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[43]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[41.12019646503102]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[43]</t>
+          <t>[41.12019646503102]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[41.12019646503102]</t>
+          <t>[12.88]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[41.12019646503102]</t>
+          <t>[26.48]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
-        <is>
-          <t>[12.88]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[26.48]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
         <is>
           <t>[1371.13]</t>
         </is>
@@ -590,45 +570,35 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[2, 2]</t>
+          <t>[32, 32]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[32, 32]</t>
+          <t>[66, 27]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[30, 30]</t>
+          <t>[65.91728336018656, 26.655785150739373]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[66, 27]</t>
+          <t>[60.82418214033048, 26.655785150739373]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[65.91728336018656, 26.655785150739373]</t>
+          <t>[23.11, 8.2]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[60.82418214033048, 26.655785150739373]</t>
+          <t>[43.79, 6.86]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
-        <is>
-          <t>[23.11, 8.2]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[43.79, 6.86]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>[2661.69, 1150.21]</t>
         </is>
@@ -657,45 +627,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[72]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[66.08783773399121]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[72]</t>
+          <t>[66.08783773399121]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[66.08783773399121]</t>
+          <t>[22.96]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[66.08783773399121]</t>
+          <t>[63.76]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
-        <is>
-          <t>[22.96]</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[63.76]</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
         <is>
           <t>[3612.15]</t>
         </is>
@@ -724,45 +684,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[30]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[56]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[28]</t>
+          <t>[55.746922335919066]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[56]</t>
+          <t>[53.29054195631661]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[55.746922335919066]</t>
+          <t>[18.34]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[53.29054195631661]</t>
+          <t>[29.98]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
-        <is>
-          <t>[18.34]</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>[29.98]</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
         <is>
           <t>[2135.85]</t>
         </is>
@@ -791,45 +741,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[32]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[32]</t>
+          <t>[39]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[30]</t>
+          <t>[34.1088841392428]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[39]</t>
+          <t>[33.515368571321666]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[34.1088841392428]</t>
+          <t>[13.43]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[33.515368571321666]</t>
+          <t>[33.78]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>[13.43]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[33.78]</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
         <is>
           <t>[1437.7]</t>
         </is>
@@ -858,45 +798,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[97]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[92.76675635975053]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[97]</t>
+          <t>[84.99343789125676]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[92.76675635975053]</t>
+          <t>[28.95]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[84.99343789125676]</t>
+          <t>[47.05]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
-        <is>
-          <t>[28.95]</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[47.05]</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
         <is>
           <t>[3975.87]</t>
         </is>
@@ -925,45 +855,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[2]</t>
+          <t>[18]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[18]</t>
+          <t>[33]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[33.01268612137392]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[33]</t>
+          <t>[26.993265754658037]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[33.01268612137392]</t>
+          <t>[11.31]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[26.993265754658037]</t>
+          <t>[31.53]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
-        <is>
-          <t>[11.31]</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[31.53]</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
         <is>
           <t>[1529.84]</t>
         </is>

--- a/[3] Test Input/RESULTS_T10_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_T10_ASR_control.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,6 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -538,12 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[26.48]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[1371.13]</t>
+          <t>[887.21]</t>
         </is>
       </c>
     </row>
@@ -595,12 +585,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[43.79, 6.86]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[2661.69, 1150.21]</t>
+          <t>[1611.33, 860.83]</t>
         </is>
       </c>
     </row>
@@ -652,12 +637,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[63.76]</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>[3612.15]</t>
+          <t>[2325.46]</t>
         </is>
       </c>
     </row>
@@ -709,12 +689,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[29.98]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>[2135.85]</t>
+          <t>[1268.2]</t>
         </is>
       </c>
     </row>
@@ -766,12 +741,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[33.78]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[1437.7]</t>
+          <t>[951.23]</t>
         </is>
       </c>
     </row>
@@ -823,12 +793,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[47.05]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>[3975.87]</t>
+          <t>[2761.37]</t>
         </is>
       </c>
     </row>
@@ -880,12 +845,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[31.53]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>[1529.84]</t>
+          <t>[1046.66]</t>
         </is>
       </c>
     </row>
